--- a/Thesis/Organizers/SDLC.xlsx
+++ b/Thesis/Organizers/SDLC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geo\OneDrive\Documents\School\LCBA\201718SEM2\ITE 316\SP-Thesis\Organizers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geo\Documents\Git\School\Thesis\Organizers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CASSY-SDLC v0.01" sheetId="1" r:id="rId1"/>
@@ -255,9 +255,6 @@
     <t>IDE</t>
   </si>
   <si>
-    <t>Visual Studio 2017 Community Edition with Xamarin</t>
-  </si>
-  <si>
     <t>Integration &amp; System Testing</t>
   </si>
   <si>
@@ -306,9 +303,6 @@
     <t>Microsoft Excel</t>
   </si>
   <si>
-    <t>Microsoft PowerPoint</t>
-  </si>
-  <si>
     <t>Presentation Software</t>
   </si>
   <si>
@@ -349,12 +343,6 @@
   </si>
   <si>
     <t>BlueGriffon</t>
-  </si>
-  <si>
-    <t>Notepad++</t>
-  </si>
-  <si>
-    <t>Atom</t>
   </si>
   <si>
     <t>Documents</t>
@@ -446,6 +434,18 @@
   </si>
   <si>
     <t>Management and Support System Analysis Form</t>
+  </si>
+  <si>
+    <t>Notepad++/Sublime Text</t>
+  </si>
+  <si>
+    <t>Atom/Visual Studio Code</t>
+  </si>
+  <si>
+    <t>reveal.js and slides.com</t>
+  </si>
+  <si>
+    <t>Embarcadero RAD Studio (C++ Builder)</t>
   </si>
 </sst>
 </file>
@@ -1703,6 +1703,66 @@
     <xf numFmtId="0" fontId="12" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1807,66 +1867,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2331,46 +2331,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="183" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="184"/>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="184"/>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="185"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="205"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188"/>
-      <c r="B2" s="189"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="60">
         <v>1</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="206" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2537,7 +2537,7 @@
       <c r="AF4" s="20"/>
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="186"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -2571,7 +2571,7 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2609,7 +2609,7 @@
       <c r="AF6" s="20"/>
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="186"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -2643,7 +2643,7 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2681,7 +2681,7 @@
       <c r="AF8" s="20"/>
     </row>
     <row r="9" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="186"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -2715,7 +2715,7 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="AF10" s="20"/>
     </row>
     <row r="11" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="186"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -2787,7 +2787,7 @@
       <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="AF12" s="20"/>
     </row>
     <row r="13" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="186"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -2859,7 +2859,7 @@
       <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="AF14" s="20"/>
     </row>
     <row r="15" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="186"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -2931,7 +2931,7 @@
       <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2969,7 +2969,7 @@
       <c r="AF16" s="20"/>
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="186"/>
+      <c r="A17" s="206"/>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -3003,7 +3003,7 @@
       <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="207" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3115,7 +3115,7 @@
       <c r="AF20" s="20"/>
     </row>
     <row r="21" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="187"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -3149,7 +3149,7 @@
       <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
+      <c r="A22" s="207"/>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="AF23" s="8"/>
     </row>
     <row r="24" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="200" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3261,7 +3261,7 @@
       <c r="AF24" s="20"/>
     </row>
     <row r="25" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="180"/>
+      <c r="A25" s="200"/>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -3295,7 +3295,7 @@
       <c r="AF25" s="8"/>
     </row>
     <row r="26" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="180"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -3333,7 +3333,7 @@
       <c r="AF26" s="20"/>
     </row>
     <row r="27" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="180"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -3367,7 +3367,7 @@
       <c r="AF27" s="8"/>
     </row>
     <row r="28" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="180"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="AF28" s="20"/>
     </row>
     <row r="29" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="180"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -3439,7 +3439,7 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="30" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="180"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -3477,7 +3477,7 @@
       <c r="AF30" s="20"/>
     </row>
     <row r="31" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="180"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -3511,7 +3511,7 @@
       <c r="AF31" s="8"/>
     </row>
     <row r="32" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="AF33" s="8"/>
     </row>
     <row r="34" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="201" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3623,7 +3623,7 @@
       <c r="AF34" s="20"/>
     </row>
     <row r="35" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="181"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -3657,7 +3657,7 @@
       <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
@@ -3695,7 +3695,7 @@
       <c r="AF36" s="20"/>
     </row>
     <row r="37" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="181"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -3729,7 +3729,7 @@
       <c r="AF37" s="8"/>
     </row>
     <row r="38" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -3767,7 +3767,7 @@
       <c r="AF38" s="20"/>
     </row>
     <row r="39" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="181"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -3801,7 +3801,7 @@
       <c r="AF39" s="8"/>
     </row>
     <row r="40" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="AF40" s="20"/>
     </row>
     <row r="41" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="181"/>
+      <c r="A41" s="201"/>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -3873,7 +3873,7 @@
       <c r="AF41" s="8"/>
     </row>
     <row r="42" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="201"/>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
@@ -3945,7 +3945,7 @@
       <c r="AF43" s="8"/>
     </row>
     <row r="44" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="202" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3985,7 +3985,7 @@
       <c r="AF44" s="20"/>
     </row>
     <row r="45" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="182"/>
+      <c r="A45" s="202"/>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -4019,7 +4019,7 @@
       <c r="AF45" s="8"/>
     </row>
     <row r="46" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
+      <c r="A46" s="202"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -4129,38 +4129,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="183" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="185"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="205"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188"/>
-      <c r="B2" s="189"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="60">
         <f ca="1">INDIRECT(ADDRESS(ROW(), COLUMN() - 1)) + 1</f>
         <v>1</v>
@@ -4277,7 +4277,7 @@
       <c r="X3" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="206" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4312,7 +4312,7 @@
       <c r="X4" s="114"/>
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="186"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -4338,7 +4338,7 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4373,7 +4373,7 @@
       <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="186"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -4399,7 +4399,7 @@
       <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="X8" s="85"/>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="186"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -4460,7 +4460,7 @@
       <c r="X9" s="8"/>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -4495,7 +4495,7 @@
       <c r="X10" s="82"/>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="186"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -4521,7 +4521,7 @@
       <c r="X11" s="8"/>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
@@ -4558,7 +4558,7 @@
       <c r="X12" s="119"/>
     </row>
     <row r="13" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="186"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -4584,7 +4584,7 @@
       <c r="X13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="X14" s="121"/>
     </row>
     <row r="15" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="186"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -4645,7 +4645,7 @@
       <c r="X15" s="8"/>
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -4686,7 +4686,7 @@
       <c r="X16" s="36"/>
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="186"/>
+      <c r="A17" s="206"/>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -4712,7 +4712,7 @@
       <c r="X17" s="8"/>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -4787,7 +4787,7 @@
       <c r="X19" s="8"/>
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="207" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4828,7 +4828,7 @@
       <c r="X20" s="40"/>
     </row>
     <row r="21" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="187"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -4854,7 +4854,7 @@
       <c r="X21" s="8"/>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
+      <c r="A22" s="207"/>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +4927,7 @@
       <c r="X23" s="8"/>
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="200" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4970,7 +4970,7 @@
       <c r="X24" s="126"/>
     </row>
     <row r="25" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="180"/>
+      <c r="A25" s="200"/>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -4996,7 +4996,7 @@
       <c r="X25" s="8"/>
     </row>
     <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="180"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -5039,7 +5039,7 @@
       <c r="X26" s="45"/>
     </row>
     <row r="27" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="180"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -5065,7 +5065,7 @@
       <c r="X27" s="8"/>
     </row>
     <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="180"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -5102,7 +5102,7 @@
       <c r="X28" s="86"/>
     </row>
     <row r="29" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="180"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -5128,7 +5128,7 @@
       <c r="X29" s="8"/>
     </row>
     <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="180"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -5163,7 +5163,7 @@
       <c r="X30" s="130"/>
     </row>
     <row r="31" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="180"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -5189,7 +5189,7 @@
       <c r="X31" s="8"/>
     </row>
     <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
@@ -5250,7 +5250,7 @@
       <c r="X33" s="8"/>
     </row>
     <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="201" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5287,7 +5287,7 @@
       <c r="X34" s="133"/>
     </row>
     <row r="35" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="181"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -5313,7 +5313,7 @@
       <c r="X35" s="8"/>
     </row>
     <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
@@ -5348,7 +5348,7 @@
       <c r="X36" s="87"/>
     </row>
     <row r="37" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="181"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -5374,7 +5374,7 @@
       <c r="X37" s="8"/>
     </row>
     <row r="38" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -5409,7 +5409,7 @@
       <c r="X38" s="135"/>
     </row>
     <row r="39" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="181"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -5435,7 +5435,7 @@
       <c r="X39" s="8"/>
     </row>
     <row r="40" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
@@ -5472,7 +5472,7 @@
       <c r="X40" s="137"/>
     </row>
     <row r="41" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="181"/>
+      <c r="A41" s="201"/>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -5498,7 +5498,7 @@
       <c r="X41" s="8"/>
     </row>
     <row r="42" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="201"/>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
@@ -5559,7 +5559,7 @@
       <c r="X43" s="8"/>
     </row>
     <row r="44" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="202" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -5600,7 +5600,7 @@
       <c r="X44" s="138"/>
     </row>
     <row r="45" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="182"/>
+      <c r="A45" s="202"/>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -5626,7 +5626,7 @@
       <c r="X45" s="8"/>
     </row>
     <row r="46" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
+      <c r="A46" s="202"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -5743,11 +5743,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AB26" sqref="AB26"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5760,52 +5760,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="211" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="211" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191" t="s">
+      <c r="C1" s="211"/>
+      <c r="D1" s="211" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191" t="s">
+      <c r="E1" s="211"/>
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="191" t="s">
+      <c r="L1" s="211" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="191"/>
-      <c r="N1" s="191"/>
-      <c r="O1" s="191"/>
-      <c r="P1" s="191"/>
-      <c r="Q1" s="191"/>
-      <c r="R1" s="191"/>
-      <c r="S1" s="191"/>
-      <c r="T1" s="191"/>
-      <c r="U1" s="191"/>
-      <c r="V1" s="191"/>
-      <c r="W1" s="191"/>
-      <c r="X1" s="191"/>
-      <c r="Y1" s="191"/>
-      <c r="Z1" s="191"/>
-      <c r="AA1" s="191"/>
-      <c r="AB1" s="191"/>
-      <c r="AC1" s="191"/>
-      <c r="AD1" s="191"/>
-      <c r="AE1" s="191"/>
-      <c r="AF1" s="191"/>
-      <c r="AG1" s="191"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="211"/>
+      <c r="O1" s="211"/>
+      <c r="P1" s="211"/>
+      <c r="Q1" s="211"/>
+      <c r="R1" s="211"/>
+      <c r="S1" s="211"/>
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="211"/>
+      <c r="AB1" s="211"/>
+      <c r="AC1" s="211"/>
+      <c r="AD1" s="211"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="211"/>
+      <c r="AG1" s="211"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="191"/>
+      <c r="A2" s="211"/>
       <c r="B2" s="111" t="s">
         <v>43</v>
       </c>
@@ -5833,7 +5833,7 @@
       <c r="J2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="191"/>
+      <c r="K2" s="211"/>
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
       <c r="N2" s="90"/>
@@ -5858,7 +5858,7 @@
       <c r="AG2" s="109"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="192" t="s">
+      <c r="A3" s="212" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="112">
@@ -5971,7 +5971,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="192"/>
+      <c r="A4" s="212"/>
       <c r="B4" s="112">
         <v>23</v>
       </c>
@@ -6094,7 +6094,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="112">
         <v>24</v>
       </c>
@@ -6217,7 +6217,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="112">
         <v>25</v>
       </c>
@@ -6337,7 +6337,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="112">
         <v>26</v>
       </c>
@@ -6460,7 +6460,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="193" t="s">
+      <c r="A8" s="213" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="112">
@@ -6582,7 +6582,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="193"/>
+      <c r="A9" s="213"/>
       <c r="B9" s="112">
         <v>28</v>
       </c>
@@ -6702,7 +6702,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="193"/>
+      <c r="A10" s="213"/>
       <c r="B10" s="112">
         <v>29</v>
       </c>
@@ -6822,7 +6822,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="193"/>
+      <c r="A11" s="213"/>
       <c r="B11" s="112">
         <v>30</v>
       </c>
@@ -6944,7 +6944,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="214" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="112">
@@ -6977,7 +6977,7 @@
       </c>
       <c r="K12" s="170" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>This Week</v>
       </c>
       <c r="L12" s="144" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7069,7 +7069,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="194"/>
+      <c r="A13" s="214"/>
       <c r="B13" s="112">
         <v>32</v>
       </c>
@@ -7192,7 +7192,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="194"/>
+      <c r="A14" s="214"/>
       <c r="B14" s="112">
         <v>33</v>
       </c>
@@ -7315,7 +7315,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="194"/>
+      <c r="A15" s="214"/>
       <c r="B15" s="112">
         <v>34</v>
       </c>
@@ -7438,7 +7438,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="194"/>
+      <c r="A16" s="214"/>
       <c r="B16" s="112">
         <v>35</v>
       </c>
@@ -7561,7 +7561,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="195" t="s">
+      <c r="A17" s="215" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="112">
@@ -7686,7 +7686,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="195"/>
+      <c r="A18" s="215"/>
       <c r="B18" s="112">
         <v>37</v>
       </c>
@@ -7809,7 +7809,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="195"/>
+      <c r="A19" s="215"/>
       <c r="B19" s="112">
         <v>38</v>
       </c>
@@ -7932,7 +7932,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="195"/>
+      <c r="A20" s="215"/>
       <c r="B20" s="112">
         <v>39</v>
       </c>
@@ -8055,7 +8055,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="196" t="s">
+      <c r="A21" s="216" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="112">
@@ -8180,7 +8180,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="196"/>
+      <c r="A22" s="216"/>
       <c r="B22" s="112">
         <v>41</v>
       </c>
@@ -8303,7 +8303,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="196"/>
+      <c r="A23" s="216"/>
       <c r="B23" s="112">
         <v>42</v>
       </c>
@@ -8426,7 +8426,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="196"/>
+      <c r="A24" s="216"/>
       <c r="B24" s="112">
         <v>43</v>
       </c>
@@ -8549,7 +8549,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="197" t="s">
+      <c r="A25" s="217" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="112">
@@ -8674,7 +8674,7 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="197"/>
+      <c r="A26" s="217"/>
       <c r="B26" s="112">
         <v>45</v>
       </c>
@@ -8797,7 +8797,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="197"/>
+      <c r="A27" s="217"/>
       <c r="B27" s="112">
         <v>46</v>
       </c>
@@ -8920,7 +8920,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="197"/>
+      <c r="A28" s="217"/>
       <c r="B28" s="112">
         <v>47</v>
       </c>
@@ -9043,7 +9043,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="197"/>
+      <c r="A29" s="217"/>
       <c r="B29" s="112">
         <v>48</v>
       </c>
@@ -9166,7 +9166,7 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="198" t="s">
+      <c r="A30" s="218" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="112">
@@ -9291,7 +9291,7 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="198"/>
+      <c r="A31" s="218"/>
       <c r="B31" s="112">
         <v>50</v>
       </c>
@@ -9414,7 +9414,7 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="198"/>
+      <c r="A32" s="218"/>
       <c r="B32" s="112">
         <v>51</v>
       </c>
@@ -9537,7 +9537,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="198"/>
+      <c r="A33" s="218"/>
       <c r="B33" s="112">
         <v>52</v>
       </c>
@@ -9660,7 +9660,7 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="190" t="s">
+      <c r="A34" s="210" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="112">
@@ -9785,7 +9785,7 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="190"/>
+      <c r="A35" s="210"/>
       <c r="B35" s="112">
         <v>2</v>
       </c>
@@ -9985,11 +9985,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10003,22 +10003,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="231" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="212"/>
-      <c r="D1" s="213"/>
-      <c r="E1" s="208" t="s">
-        <v>73</v>
-      </c>
-      <c r="F1" s="209"/>
-      <c r="G1" s="209"/>
-      <c r="H1" s="209"/>
-      <c r="I1" s="210"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="228" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="230"/>
     </row>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="177" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C2" s="178" t="s">
         <v>67</v>
@@ -10026,471 +10026,471 @@
       <c r="D2" s="179" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="215" t="s">
+      <c r="E2" s="180" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="216" t="s">
+      <c r="F2" s="181" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="217" t="s">
+      <c r="G2" s="182" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="218" t="s">
+      <c r="H2" s="183" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="184" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="219" t="s">
-        <v>72</v>
-      </c>
     </row>
     <row r="3" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="207" t="s">
-        <v>110</v>
+      <c r="B3" s="227" t="s">
+        <v>106</v>
       </c>
       <c r="C3" s="175" t="s">
         <v>69</v>
       </c>
       <c r="D3" s="176" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="220" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="185" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="197"/>
+      <c r="G3" s="186" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="187" t="s">
+        <v>97</v>
+      </c>
+      <c r="I3" s="188" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="219"/>
+      <c r="C4" s="172" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="173" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I4" s="193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" s="77" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="219"/>
+      <c r="C5" s="172" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="173" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="189"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="193"/>
+    </row>
+    <row r="6" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="219"/>
+      <c r="C6" s="234" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="173" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" s="189"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I6" s="193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B7" s="219"/>
+      <c r="C7" s="234"/>
+      <c r="D7" s="173" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="189"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I7" s="193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B8" s="219" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="172" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" s="173" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F8" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B9" s="219"/>
+      <c r="C9" s="172" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="173" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F9" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I9" s="193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B10" s="219"/>
+      <c r="C10" s="221" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="173" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="189"/>
+      <c r="F10" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I10" s="193"/>
+    </row>
+    <row r="11" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B11" s="219"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="173" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="189"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I11" s="193"/>
+    </row>
+    <row r="12" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B12" s="219"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="173" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="189"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="191"/>
+      <c r="H12" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="193"/>
+    </row>
+    <row r="13" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B13" s="219"/>
+      <c r="C13" s="224"/>
+      <c r="D13" s="173" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="189"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="191"/>
+      <c r="H13" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I13" s="193"/>
+    </row>
+    <row r="14" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B14" s="225" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="172" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="173" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" s="190"/>
+      <c r="G14" s="191"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="193"/>
+    </row>
+    <row r="15" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B15" s="226"/>
+      <c r="C15" s="221" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="173" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="190"/>
+      <c r="G15" s="191"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="193"/>
+    </row>
+    <row r="16" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B16" s="226"/>
+      <c r="C16" s="224"/>
+      <c r="D16" s="173" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="189"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="191"/>
+      <c r="H16" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B17" s="226"/>
+      <c r="C17" s="221" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="173" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="190"/>
+      <c r="G17" s="191"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="193"/>
+    </row>
+    <row r="18" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B18" s="226"/>
+      <c r="C18" s="224"/>
+      <c r="D18" s="173" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="190"/>
+      <c r="G18" s="191"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="193"/>
+    </row>
+    <row r="19" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="227"/>
+      <c r="C19" s="175" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="173" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="189"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="191"/>
+      <c r="H19" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I19" s="193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" s="77" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B20" s="219" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" s="172" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="173" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G20" s="191"/>
+      <c r="H20" s="192"/>
+      <c r="I20" s="193"/>
+    </row>
+    <row r="21" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B21" s="219"/>
+      <c r="C21" s="172" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="193"/>
+    </row>
+    <row r="22" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B22" s="219"/>
+      <c r="C22" s="172" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="173" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G22" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="193"/>
+    </row>
+    <row r="23" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B23" s="219"/>
+      <c r="C23" s="172" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="173" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" s="189" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="190"/>
+      <c r="G23" s="191"/>
+      <c r="H23" s="192"/>
+      <c r="I23" s="193"/>
+    </row>
+    <row r="24" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B24" s="219"/>
+      <c r="C24" s="172" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="232"/>
-      <c r="G3" s="221" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="222" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="223" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="199"/>
-      <c r="C4" s="172" t="s">
-        <v>74</v>
-      </c>
-      <c r="D4" s="173" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" s="77" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="199"/>
-      <c r="C5" s="172" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="173" t="s">
-        <v>117</v>
-      </c>
-      <c r="E5" s="224"/>
-      <c r="F5" s="225"/>
-      <c r="G5" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="228"/>
-    </row>
-    <row r="6" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="199"/>
-      <c r="C6" s="214" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="173" t="s">
-        <v>114</v>
-      </c>
-      <c r="E6" s="224"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="199"/>
-      <c r="C7" s="214"/>
-      <c r="D7" s="173" t="s">
+      <c r="E24" s="189"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="192"/>
+      <c r="I24" s="193"/>
+    </row>
+    <row r="25" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="B25" s="219"/>
+      <c r="C25" s="221" t="s">
+        <v>112</v>
+      </c>
+      <c r="D25" s="173" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="225"/>
-      <c r="G7" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="199" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="172" t="s">
-        <v>91</v>
-      </c>
-      <c r="D8" s="173" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="199"/>
-      <c r="C9" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="D9" s="173" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="199"/>
-      <c r="C10" s="201" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="173" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="224"/>
-      <c r="F10" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="228"/>
-    </row>
-    <row r="11" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="199"/>
-      <c r="C11" s="203"/>
-      <c r="D11" s="173" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="224"/>
-      <c r="F11" s="225"/>
-      <c r="G11" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="228"/>
-    </row>
-    <row r="12" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="199"/>
-      <c r="C12" s="203"/>
-      <c r="D12" s="173" t="s">
+      <c r="E25" s="189" t="s">
         <v>97</v>
       </c>
-      <c r="E12" s="224"/>
-      <c r="F12" s="225"/>
-      <c r="G12" s="226"/>
-      <c r="H12" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="228"/>
-    </row>
-    <row r="13" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="199"/>
-      <c r="C13" s="204"/>
-      <c r="D13" s="173" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="224"/>
-      <c r="F13" s="225"/>
-      <c r="G13" s="226"/>
-      <c r="H13" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="228"/>
-    </row>
-    <row r="14" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="205" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="172" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="173" t="s">
-        <v>96</v>
-      </c>
-      <c r="E14" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="225"/>
-      <c r="G14" s="226"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="228"/>
-    </row>
-    <row r="15" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="206"/>
-      <c r="C15" s="201" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="173" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="225"/>
-      <c r="G15" s="226"/>
-      <c r="H15" s="227"/>
-      <c r="I15" s="228"/>
-    </row>
-    <row r="16" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="206"/>
-      <c r="C16" s="204"/>
-      <c r="D16" s="173" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="224"/>
-      <c r="F16" s="225"/>
-      <c r="G16" s="226"/>
-      <c r="H16" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="206"/>
-      <c r="C17" s="201" t="s">
-        <v>105</v>
-      </c>
-      <c r="D17" s="173" t="s">
-        <v>95</v>
-      </c>
-      <c r="E17" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17" s="225"/>
-      <c r="G17" s="226"/>
-      <c r="H17" s="227"/>
-      <c r="I17" s="228"/>
-    </row>
-    <row r="18" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="206"/>
-      <c r="C18" s="204"/>
-      <c r="D18" s="173" t="s">
-        <v>118</v>
-      </c>
-      <c r="E18" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="225"/>
-      <c r="G18" s="226"/>
-      <c r="H18" s="227"/>
-      <c r="I18" s="228"/>
-    </row>
-    <row r="19" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="207"/>
-      <c r="C19" s="175" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="173" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="224"/>
-      <c r="F19" s="225"/>
-      <c r="G19" s="226"/>
-      <c r="H19" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" s="77" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="199" t="s">
-        <v>113</v>
-      </c>
-      <c r="C20" s="172" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="173" t="s">
-        <v>84</v>
-      </c>
-      <c r="E20" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="226"/>
-      <c r="H20" s="227"/>
-      <c r="I20" s="228"/>
-    </row>
-    <row r="21" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="199"/>
-      <c r="C21" s="172" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" s="173" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F21" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="228"/>
-    </row>
-    <row r="22" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="199"/>
-      <c r="C22" s="172" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="173" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="228"/>
-    </row>
-    <row r="23" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="199"/>
-      <c r="C23" s="172" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="173" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="225"/>
-      <c r="G23" s="226"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="228"/>
-    </row>
-    <row r="24" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="199"/>
-      <c r="C24" s="172" t="s">
-        <v>100</v>
-      </c>
-      <c r="D24" s="173" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="224"/>
-      <c r="F24" s="225"/>
-      <c r="G24" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="227"/>
-      <c r="I24" s="228"/>
-    </row>
-    <row r="25" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="199"/>
-      <c r="C25" s="201" t="s">
+      <c r="F25" s="190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="191" t="s">
+        <v>97</v>
+      </c>
+      <c r="H25" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="I25" s="193" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" s="77" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="220"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="174" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="173" t="s">
-        <v>102</v>
-      </c>
-      <c r="E25" s="224" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="225" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="226" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="227" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="228" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" s="77" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="200"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="E26" s="229"/>
-      <c r="F26" s="230"/>
-      <c r="G26" s="231" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="233"/>
-      <c r="I26" s="234"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="196" t="s">
+        <v>97</v>
+      </c>
+      <c r="H26" s="198"/>
+      <c r="I26" s="199"/>
     </row>
     <row r="27" spans="2:9" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -10531,46 +10531,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="203" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="183" t="s">
+      <c r="B1" s="205"/>
+      <c r="C1" s="203" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
-      <c r="H1" s="184"/>
-      <c r="I1" s="184"/>
-      <c r="J1" s="184"/>
-      <c r="K1" s="184"/>
-      <c r="L1" s="184"/>
-      <c r="M1" s="184"/>
-      <c r="N1" s="184"/>
-      <c r="O1" s="184"/>
-      <c r="P1" s="184"/>
-      <c r="Q1" s="184"/>
-      <c r="R1" s="184"/>
-      <c r="S1" s="184"/>
-      <c r="T1" s="184"/>
-      <c r="U1" s="184"/>
-      <c r="V1" s="184"/>
-      <c r="W1" s="184"/>
-      <c r="X1" s="184"/>
-      <c r="Y1" s="184"/>
-      <c r="Z1" s="184"/>
-      <c r="AA1" s="184"/>
-      <c r="AB1" s="184"/>
-      <c r="AC1" s="184"/>
-      <c r="AD1" s="184"/>
-      <c r="AE1" s="184"/>
-      <c r="AF1" s="185"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="205"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="188"/>
-      <c r="B2" s="189"/>
+      <c r="A2" s="208"/>
+      <c r="B2" s="209"/>
       <c r="C2" s="60">
         <f ca="1">INDIRECT(ADDRESS(ROW(), COLUMN() - 1)) + 1</f>
         <v>1</v>
@@ -10727,7 +10727,7 @@
       <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="186" t="s">
+      <c r="A4" s="206" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -10770,7 +10770,7 @@
       <c r="AF4" s="114"/>
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="186"/>
+      <c r="A5" s="206"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -10804,7 +10804,7 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="186"/>
+      <c r="A6" s="206"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -10845,7 +10845,7 @@
       <c r="AF6" s="84"/>
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="186"/>
+      <c r="A7" s="206"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -10879,7 +10879,7 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="186"/>
+      <c r="A8" s="206"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -10922,7 +10922,7 @@
       <c r="AF8" s="85"/>
     </row>
     <row r="9" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="186"/>
+      <c r="A9" s="206"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -10956,7 +10956,7 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="186"/>
+      <c r="A10" s="206"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -10999,7 +10999,7 @@
       <c r="AF10" s="82"/>
     </row>
     <row r="11" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="186"/>
+      <c r="A11" s="206"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -11033,7 +11033,7 @@
       <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
+      <c r="A12" s="206"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -11078,7 +11078,7 @@
       <c r="AF12" s="119"/>
     </row>
     <row r="13" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="186"/>
+      <c r="A13" s="206"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -11112,7 +11112,7 @@
       <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+      <c r="A14" s="206"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -11155,7 +11155,7 @@
       <c r="AF14" s="121"/>
     </row>
     <row r="15" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="186"/>
+      <c r="A15" s="206"/>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -11189,7 +11189,7 @@
       <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
+      <c r="A16" s="206"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -11240,7 +11240,7 @@
       <c r="AF16" s="36"/>
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="186"/>
+      <c r="A17" s="206"/>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -11274,7 +11274,7 @@
       <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
+      <c r="A18" s="206"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -11377,7 +11377,7 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="187" t="s">
+      <c r="A20" s="207" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -11428,7 +11428,7 @@
       <c r="AF20" s="40"/>
     </row>
     <row r="21" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="187"/>
+      <c r="A21" s="207"/>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -11462,7 +11462,7 @@
       <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="187"/>
+      <c r="A22" s="207"/>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
@@ -11561,7 +11561,7 @@
       <c r="AF23" s="8"/>
     </row>
     <row r="24" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="180" t="s">
+      <c r="A24" s="200" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -11616,7 +11616,7 @@
       <c r="AF24" s="126"/>
     </row>
     <row r="25" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="180"/>
+      <c r="A25" s="200"/>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -11650,7 +11650,7 @@
       <c r="AF25" s="8"/>
     </row>
     <row r="26" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="180"/>
+      <c r="A26" s="200"/>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -11709,7 +11709,7 @@
       <c r="AF26" s="45"/>
     </row>
     <row r="27" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="180"/>
+      <c r="A27" s="200"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -11743,7 +11743,7 @@
       <c r="AF27" s="8"/>
     </row>
     <row r="28" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="180"/>
+      <c r="A28" s="200"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -11788,7 +11788,7 @@
       <c r="AF28" s="86"/>
     </row>
     <row r="29" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="180"/>
+      <c r="A29" s="200"/>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -11822,7 +11822,7 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="30" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="180"/>
+      <c r="A30" s="200"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -11865,7 +11865,7 @@
       <c r="AF30" s="130"/>
     </row>
     <row r="31" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="180"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -11899,7 +11899,7 @@
       <c r="AF31" s="8"/>
     </row>
     <row r="32" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="180"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
@@ -11980,7 +11980,7 @@
       <c r="AF33" s="8"/>
     </row>
     <row r="34" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="181" t="s">
+      <c r="A34" s="201" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -12025,7 +12025,7 @@
       <c r="AF34" s="133"/>
     </row>
     <row r="35" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="181"/>
+      <c r="A35" s="201"/>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -12059,7 +12059,7 @@
       <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="201"/>
       <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
@@ -12102,7 +12102,7 @@
       <c r="AF36" s="87"/>
     </row>
     <row r="37" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="181"/>
+      <c r="A37" s="201"/>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -12136,7 +12136,7 @@
       <c r="AF37" s="8"/>
     </row>
     <row r="38" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
+      <c r="A38" s="201"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -12179,7 +12179,7 @@
       <c r="AF38" s="135"/>
     </row>
     <row r="39" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="181"/>
+      <c r="A39" s="201"/>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -12213,7 +12213,7 @@
       <c r="AF39" s="8"/>
     </row>
     <row r="40" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
+      <c r="A40" s="201"/>
       <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="AF40" s="137"/>
     </row>
     <row r="41" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="181"/>
+      <c r="A41" s="201"/>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -12296,7 +12296,7 @@
       <c r="AF41" s="8"/>
     </row>
     <row r="42" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="201"/>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
@@ -12375,7 +12375,7 @@
       <c r="AF43" s="8"/>
     </row>
     <row r="44" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="182" t="s">
+      <c r="A44" s="202" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -12428,7 +12428,7 @@
       <c r="AF44" s="138"/>
     </row>
     <row r="45" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="182"/>
+      <c r="A45" s="202"/>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -12462,7 +12462,7 @@
       <c r="AF45" s="8"/>
     </row>
     <row r="46" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="182"/>
+      <c r="A46" s="202"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>

--- a/Thesis/Organizers/SDLC.xlsx
+++ b/Thesis/Organizers/SDLC.xlsx
@@ -5,31 +5,33 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geo\Documents\Git\School\Thesis\Organizers\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Geo\OneDrive\Documents\School\LCBA\201718SEM2\ITE 316\SP-Thesis\Organizers\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="7755" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="CASSY-SDLC v0.01" sheetId="1" r:id="rId1"/>
     <sheet name="CASSY-SDLC v0.02" sheetId="6" r:id="rId2"/>
     <sheet name="Week Calendar" sheetId="7" r:id="rId3"/>
     <sheet name="SDLC Tools" sheetId="10" r:id="rId4"/>
-    <sheet name="CASSY-SDLC v0.02 (TBF) (2)" sheetId="9" state="hidden" r:id="rId5"/>
-    <sheet name="Menus" sheetId="8" state="hidden" r:id="rId6"/>
+    <sheet name="CASSY (SWOT Analysis)" sheetId="11" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="12" r:id="rId6"/>
+    <sheet name="CASSY-SDLC v0.02 (TBF) (2)" sheetId="9" state="hidden" r:id="rId7"/>
+    <sheet name="Menus" sheetId="8" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="Activities" localSheetId="1">'CASSY-SDLC v0.02'!$B$4,'CASSY-SDLC v0.02'!$B$6,'CASSY-SDLC v0.02'!$B$8,'CASSY-SDLC v0.02'!$B$10,'CASSY-SDLC v0.02'!$B$12,'CASSY-SDLC v0.02'!$B$14,'CASSY-SDLC v0.02'!$B$16,'CASSY-SDLC v0.02'!$B$18,'CASSY-SDLC v0.02'!$B$20,'CASSY-SDLC v0.02'!$B$22,'CASSY-SDLC v0.02'!$B$24,'CASSY-SDLC v0.02'!$B$26,'CASSY-SDLC v0.02'!$B$28,'CASSY-SDLC v0.02'!$B$30,'CASSY-SDLC v0.02'!$B$32,'CASSY-SDLC v0.02'!$B$34,'CASSY-SDLC v0.02'!$B$36,'CASSY-SDLC v0.02'!$B$38,'CASSY-SDLC v0.02'!$B$40,'CASSY-SDLC v0.02'!$B$42,'CASSY-SDLC v0.02'!$B$44,'CASSY-SDLC v0.02'!$B$46</definedName>
-    <definedName name="Activities" localSheetId="4">'CASSY-SDLC v0.02 (TBF) (2)'!$B$4,'CASSY-SDLC v0.02 (TBF) (2)'!$B$6,'CASSY-SDLC v0.02 (TBF) (2)'!$B$8,'CASSY-SDLC v0.02 (TBF) (2)'!$B$10,'CASSY-SDLC v0.02 (TBF) (2)'!$B$12,'CASSY-SDLC v0.02 (TBF) (2)'!$B$14,'CASSY-SDLC v0.02 (TBF) (2)'!$B$16,'CASSY-SDLC v0.02 (TBF) (2)'!$B$18,'CASSY-SDLC v0.02 (TBF) (2)'!$B$20,'CASSY-SDLC v0.02 (TBF) (2)'!$B$22,'CASSY-SDLC v0.02 (TBF) (2)'!$B$24,'CASSY-SDLC v0.02 (TBF) (2)'!$B$26,'CASSY-SDLC v0.02 (TBF) (2)'!$B$28,'CASSY-SDLC v0.02 (TBF) (2)'!$B$30,'CASSY-SDLC v0.02 (TBF) (2)'!$B$32,'CASSY-SDLC v0.02 (TBF) (2)'!$B$34,'CASSY-SDLC v0.02 (TBF) (2)'!$B$36,'CASSY-SDLC v0.02 (TBF) (2)'!$B$38,'CASSY-SDLC v0.02 (TBF) (2)'!$B$40,'CASSY-SDLC v0.02 (TBF) (2)'!$B$42,'CASSY-SDLC v0.02 (TBF) (2)'!$B$44,'CASSY-SDLC v0.02 (TBF) (2)'!$B$46</definedName>
+    <definedName name="Activities" localSheetId="6">'CASSY-SDLC v0.02 (TBF) (2)'!$B$4,'CASSY-SDLC v0.02 (TBF) (2)'!$B$6,'CASSY-SDLC v0.02 (TBF) (2)'!$B$8,'CASSY-SDLC v0.02 (TBF) (2)'!$B$10,'CASSY-SDLC v0.02 (TBF) (2)'!$B$12,'CASSY-SDLC v0.02 (TBF) (2)'!$B$14,'CASSY-SDLC v0.02 (TBF) (2)'!$B$16,'CASSY-SDLC v0.02 (TBF) (2)'!$B$18,'CASSY-SDLC v0.02 (TBF) (2)'!$B$20,'CASSY-SDLC v0.02 (TBF) (2)'!$B$22,'CASSY-SDLC v0.02 (TBF) (2)'!$B$24,'CASSY-SDLC v0.02 (TBF) (2)'!$B$26,'CASSY-SDLC v0.02 (TBF) (2)'!$B$28,'CASSY-SDLC v0.02 (TBF) (2)'!$B$30,'CASSY-SDLC v0.02 (TBF) (2)'!$B$32,'CASSY-SDLC v0.02 (TBF) (2)'!$B$34,'CASSY-SDLC v0.02 (TBF) (2)'!$B$36,'CASSY-SDLC v0.02 (TBF) (2)'!$B$38,'CASSY-SDLC v0.02 (TBF) (2)'!$B$40,'CASSY-SDLC v0.02 (TBF) (2)'!$B$42,'CASSY-SDLC v0.02 (TBF) (2)'!$B$44,'CASSY-SDLC v0.02 (TBF) (2)'!$B$46</definedName>
     <definedName name="Activities">'CASSY-SDLC v0.01'!$B$4,'CASSY-SDLC v0.01'!$B$6,'CASSY-SDLC v0.01'!$B$8,'CASSY-SDLC v0.01'!$B$10,'CASSY-SDLC v0.01'!$B$12,'CASSY-SDLC v0.01'!$B$14,'CASSY-SDLC v0.01'!$B$16,'CASSY-SDLC v0.01'!$B$18,'CASSY-SDLC v0.01'!$B$20,'CASSY-SDLC v0.01'!$B$22,'CASSY-SDLC v0.01'!$B$24,'CASSY-SDLC v0.01'!$B$26,'CASSY-SDLC v0.01'!$B$28,'CASSY-SDLC v0.01'!$B$30,'CASSY-SDLC v0.01'!$B$32,'CASSY-SDLC v0.01'!$B$34,'CASSY-SDLC v0.01'!$B$36,'CASSY-SDLC v0.01'!$B$38,'CASSY-SDLC v0.01'!$B$40,'CASSY-SDLC v0.01'!$B$42,'CASSY-SDLC v0.01'!$B$44,'CASSY-SDLC v0.01'!$B$46</definedName>
     <definedName name="Current_Week" localSheetId="2">"This Week"</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'CASSY-SDLC v0.01'!$A:$B,'CASSY-SDLC v0.01'!$1:$2</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'CASSY-SDLC v0.02'!$A:$B,'CASSY-SDLC v0.02'!$1:$2</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'CASSY-SDLC v0.02 (TBF) (2)'!$A:$B,'CASSY-SDLC v0.02 (TBF) (2)'!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="6">'CASSY-SDLC v0.02 (TBF) (2)'!$A:$B,'CASSY-SDLC v0.02 (TBF) (2)'!$1:$2</definedName>
     <definedName name="SDLCSheet" localSheetId="2">"CASSY-SDLC v0.02"</definedName>
     <definedName name="Spacer_Rows" localSheetId="1">'CASSY-SDLC v0.02'!$3:$3,'CASSY-SDLC v0.02'!$5:$5,'CASSY-SDLC v0.02'!$7:$7,'CASSY-SDLC v0.02'!$9:$9,'CASSY-SDLC v0.02'!$11:$11,'CASSY-SDLC v0.02'!$13:$13,'CASSY-SDLC v0.02'!$15:$15,'CASSY-SDLC v0.02'!$17:$17,'CASSY-SDLC v0.02'!$19:$19,'CASSY-SDLC v0.02'!$21:$21,'CASSY-SDLC v0.02'!$23:$23,'CASSY-SDLC v0.02'!$25:$25,'CASSY-SDLC v0.02'!$27:$27,'CASSY-SDLC v0.02'!$29:$29,'CASSY-SDLC v0.02'!$31:$31,'CASSY-SDLC v0.02'!$33:$33,'CASSY-SDLC v0.02'!$35:$35,'CASSY-SDLC v0.02'!$37:$37,'CASSY-SDLC v0.02'!$39:$39,'CASSY-SDLC v0.02'!$41:$41,'CASSY-SDLC v0.02'!$43:$43,'CASSY-SDLC v0.02'!$45:$45,'CASSY-SDLC v0.02'!$47:$47</definedName>
-    <definedName name="Spacer_Rows" localSheetId="4">'CASSY-SDLC v0.02 (TBF) (2)'!$3:$3,'CASSY-SDLC v0.02 (TBF) (2)'!$5:$5,'CASSY-SDLC v0.02 (TBF) (2)'!$7:$7,'CASSY-SDLC v0.02 (TBF) (2)'!$9:$9,'CASSY-SDLC v0.02 (TBF) (2)'!$11:$11,'CASSY-SDLC v0.02 (TBF) (2)'!$13:$13,'CASSY-SDLC v0.02 (TBF) (2)'!$15:$15,'CASSY-SDLC v0.02 (TBF) (2)'!$17:$17,'CASSY-SDLC v0.02 (TBF) (2)'!$19:$19,'CASSY-SDLC v0.02 (TBF) (2)'!$21:$21,'CASSY-SDLC v0.02 (TBF) (2)'!$23:$23,'CASSY-SDLC v0.02 (TBF) (2)'!$25:$25,'CASSY-SDLC v0.02 (TBF) (2)'!$27:$27,'CASSY-SDLC v0.02 (TBF) (2)'!$29:$29,'CASSY-SDLC v0.02 (TBF) (2)'!$31:$31,'CASSY-SDLC v0.02 (TBF) (2)'!$33:$33,'CASSY-SDLC v0.02 (TBF) (2)'!$35:$35,'CASSY-SDLC v0.02 (TBF) (2)'!$37:$37,'CASSY-SDLC v0.02 (TBF) (2)'!$39:$39,'CASSY-SDLC v0.02 (TBF) (2)'!$41:$41,'CASSY-SDLC v0.02 (TBF) (2)'!$43:$43,'CASSY-SDLC v0.02 (TBF) (2)'!$45:$45,'CASSY-SDLC v0.02 (TBF) (2)'!$47:$47</definedName>
+    <definedName name="Spacer_Rows" localSheetId="6">'CASSY-SDLC v0.02 (TBF) (2)'!$3:$3,'CASSY-SDLC v0.02 (TBF) (2)'!$5:$5,'CASSY-SDLC v0.02 (TBF) (2)'!$7:$7,'CASSY-SDLC v0.02 (TBF) (2)'!$9:$9,'CASSY-SDLC v0.02 (TBF) (2)'!$11:$11,'CASSY-SDLC v0.02 (TBF) (2)'!$13:$13,'CASSY-SDLC v0.02 (TBF) (2)'!$15:$15,'CASSY-SDLC v0.02 (TBF) (2)'!$17:$17,'CASSY-SDLC v0.02 (TBF) (2)'!$19:$19,'CASSY-SDLC v0.02 (TBF) (2)'!$21:$21,'CASSY-SDLC v0.02 (TBF) (2)'!$23:$23,'CASSY-SDLC v0.02 (TBF) (2)'!$25:$25,'CASSY-SDLC v0.02 (TBF) (2)'!$27:$27,'CASSY-SDLC v0.02 (TBF) (2)'!$29:$29,'CASSY-SDLC v0.02 (TBF) (2)'!$31:$31,'CASSY-SDLC v0.02 (TBF) (2)'!$33:$33,'CASSY-SDLC v0.02 (TBF) (2)'!$35:$35,'CASSY-SDLC v0.02 (TBF) (2)'!$37:$37,'CASSY-SDLC v0.02 (TBF) (2)'!$39:$39,'CASSY-SDLC v0.02 (TBF) (2)'!$41:$41,'CASSY-SDLC v0.02 (TBF) (2)'!$43:$43,'CASSY-SDLC v0.02 (TBF) (2)'!$45:$45,'CASSY-SDLC v0.02 (TBF) (2)'!$47:$47</definedName>
     <definedName name="Spacer_Rows">'CASSY-SDLC v0.01'!$3:$3,'CASSY-SDLC v0.01'!$5:$5,'CASSY-SDLC v0.01'!$7:$7,'CASSY-SDLC v0.01'!$9:$9,'CASSY-SDLC v0.01'!$11:$11,'CASSY-SDLC v0.01'!$13:$13,'CASSY-SDLC v0.01'!$15:$15,'CASSY-SDLC v0.01'!$17:$17,'CASSY-SDLC v0.01'!$19:$19,'CASSY-SDLC v0.01'!$21:$21,'CASSY-SDLC v0.01'!$23:$23,'CASSY-SDLC v0.01'!$25:$25,'CASSY-SDLC v0.01'!$27:$27,'CASSY-SDLC v0.01'!$29:$29,'CASSY-SDLC v0.01'!$31:$31,'CASSY-SDLC v0.01'!$33:$33,'CASSY-SDLC v0.01'!$35:$35,'CASSY-SDLC v0.01'!$37:$37,'CASSY-SDLC v0.01'!$39:$39,'CASSY-SDLC v0.01'!$41:$41,'CASSY-SDLC v0.01'!$43:$43,'CASSY-SDLC v0.01'!$45:$45,'CASSY-SDLC v0.01'!$47:$47</definedName>
     <definedName name="WeekCalendarRemarks" localSheetId="2">Menus!$A:$A</definedName>
   </definedNames>
@@ -43,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="153">
   <si>
     <t>Activity</t>
   </si>
@@ -447,12 +449,114 @@
   <si>
     <t>Embarcadero RAD Studio (C++ Builder)</t>
   </si>
+  <si>
+    <t>Strengths</t>
+  </si>
+  <si>
+    <t>Weaknesses</t>
+  </si>
+  <si>
+    <t>Opportunities</t>
+  </si>
+  <si>
+    <t>Threats</t>
+  </si>
+  <si>
+    <t>It is relatively easier to build than other systems.</t>
+  </si>
+  <si>
+    <t>It will provide an extensible and customizable platform.</t>
+  </si>
+  <si>
+    <t>Development time is relatively short.</t>
+  </si>
+  <si>
+    <t>Development team is not skilled enough.</t>
+  </si>
+  <si>
+    <t>It will provide access to commonly-needed tools through a single, common interface.</t>
+  </si>
+  <si>
+    <t>CASSY: Personal Task Management and Toolkit System</t>
+  </si>
+  <si>
+    <t>It aims to help teachers efficiently manage their work and more.</t>
+  </si>
+  <si>
+    <t>Some teachers might be averse to change.</t>
+  </si>
+  <si>
+    <t>Some teachers might be averse to new technologies.</t>
+  </si>
+  <si>
+    <t>It can provide academic administrators and policy makers a fresh choice in managing teacher workflow.</t>
+  </si>
+  <si>
+    <t>Some LCBA parties might be interested in the personal system.</t>
+  </si>
+  <si>
+    <t>Some teachers might not like any form of micro-management at all.</t>
+  </si>
+  <si>
+    <t>Research panel and, quite possibly, the adviser are generally not receptive of previously presented concepts.</t>
+  </si>
+  <si>
+    <t>Plugin architecture is not that easy to implement.</t>
+  </si>
+  <si>
+    <t>Plugin development in RAD Studio/C++ Builder is poorly documented.</t>
+  </si>
+  <si>
+    <t>Many of the teacher devices might not support the app.</t>
+  </si>
+  <si>
+    <t>Wireless communication between devices might be either unavailable or severely marginalized.</t>
+  </si>
+  <si>
+    <t>Development team has not yet mastered the proposed IDE.</t>
+  </si>
+  <si>
+    <t>Development has been denied the opportunity of early requirements engineering activities.</t>
+  </si>
+  <si>
+    <t>Cross-platform development of plugins might be difficult.</t>
+  </si>
+  <si>
+    <t>Component</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>Android OS</t>
+  </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>Android app</t>
+  </si>
+  <si>
+    <t>Host system</t>
+  </si>
+  <si>
+    <t>Plugin</t>
+  </si>
+  <si>
+    <t>Android service/intent service</t>
+  </si>
+  <si>
+    <t>DLL</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,6 +681,14 @@
       <color rgb="FF007F00"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -803,7 +915,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1161,11 +1273,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1763,6 +1888,24 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -1867,6 +2010,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2331,46 +2477,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="203" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="204"/>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="204"/>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="205"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="210"/>
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="210"/>
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="211"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="208"/>
-      <c r="B2" s="209"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="60">
         <v>1</v>
       </c>
@@ -2497,7 +2643,7 @@
       <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="212" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2537,7 +2683,7 @@
       <c r="AF4" s="20"/>
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="206"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -2571,7 +2717,7 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -2609,7 +2755,7 @@
       <c r="AF6" s="20"/>
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="206"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -2643,7 +2789,7 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2681,7 +2827,7 @@
       <c r="AF8" s="20"/>
     </row>
     <row r="9" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="206"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -2715,7 +2861,7 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -2753,7 +2899,7 @@
       <c r="AF10" s="20"/>
     </row>
     <row r="11" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="206"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -2787,7 +2933,7 @@
       <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
+      <c r="A12" s="212"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +2971,7 @@
       <c r="AF12" s="20"/>
     </row>
     <row r="13" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="206"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -2859,7 +3005,7 @@
       <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="206"/>
+      <c r="A14" s="212"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -2897,7 +3043,7 @@
       <c r="AF14" s="20"/>
     </row>
     <row r="15" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="206"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -2931,7 +3077,7 @@
       <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="206"/>
+      <c r="A16" s="212"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -2969,7 +3115,7 @@
       <c r="AF16" s="20"/>
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="206"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -3003,7 +3149,7 @@
       <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
+      <c r="A18" s="212"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -3075,7 +3221,7 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="213" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3115,7 +3261,7 @@
       <c r="AF20" s="20"/>
     </row>
     <row r="21" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="207"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -3149,7 +3295,7 @@
       <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="207"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
@@ -3221,7 +3367,7 @@
       <c r="AF23" s="8"/>
     </row>
     <row r="24" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="200" t="s">
+      <c r="A24" s="206" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -3261,7 +3407,7 @@
       <c r="AF24" s="20"/>
     </row>
     <row r="25" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="200"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -3295,7 +3441,7 @@
       <c r="AF25" s="8"/>
     </row>
     <row r="26" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="200"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -3333,7 +3479,7 @@
       <c r="AF26" s="20"/>
     </row>
     <row r="27" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="200"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -3367,7 +3513,7 @@
       <c r="AF27" s="8"/>
     </row>
     <row r="28" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="200"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -3405,7 +3551,7 @@
       <c r="AF28" s="20"/>
     </row>
     <row r="29" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="200"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -3439,7 +3585,7 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="30" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="200"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -3477,7 +3623,7 @@
       <c r="AF30" s="20"/>
     </row>
     <row r="31" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="200"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -3511,7 +3657,7 @@
       <c r="AF31" s="8"/>
     </row>
     <row r="32" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="200"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
@@ -3583,7 +3729,7 @@
       <c r="AF33" s="8"/>
     </row>
     <row r="34" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="201" t="s">
+      <c r="A34" s="207" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -3623,7 +3769,7 @@
       <c r="AF34" s="20"/>
     </row>
     <row r="35" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="201"/>
+      <c r="A35" s="207"/>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -3657,7 +3803,7 @@
       <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="201"/>
+      <c r="A36" s="207"/>
       <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
@@ -3695,7 +3841,7 @@
       <c r="AF36" s="20"/>
     </row>
     <row r="37" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="201"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -3729,7 +3875,7 @@
       <c r="AF37" s="8"/>
     </row>
     <row r="38" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="201"/>
+      <c r="A38" s="207"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -3767,7 +3913,7 @@
       <c r="AF38" s="20"/>
     </row>
     <row r="39" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="201"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -3801,7 +3947,7 @@
       <c r="AF39" s="8"/>
     </row>
     <row r="40" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="201"/>
+      <c r="A40" s="207"/>
       <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
@@ -3839,7 +3985,7 @@
       <c r="AF40" s="20"/>
     </row>
     <row r="41" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="201"/>
+      <c r="A41" s="207"/>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -3873,7 +4019,7 @@
       <c r="AF41" s="8"/>
     </row>
     <row r="42" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="201"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
@@ -3945,7 +4091,7 @@
       <c r="AF43" s="8"/>
     </row>
     <row r="44" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="208" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -3985,7 +4131,7 @@
       <c r="AF44" s="20"/>
     </row>
     <row r="45" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="202"/>
+      <c r="A45" s="208"/>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -4019,7 +4165,7 @@
       <c r="AF45" s="8"/>
     </row>
     <row r="46" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="202"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -4129,38 +4275,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="203" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="205"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="211"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="208"/>
-      <c r="B2" s="209"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="60">
         <f ca="1">INDIRECT(ADDRESS(ROW(), COLUMN() - 1)) + 1</f>
         <v>1</v>
@@ -4277,7 +4423,7 @@
       <c r="X3" s="8"/>
     </row>
     <row r="4" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="212" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -4312,7 +4458,7 @@
       <c r="X4" s="114"/>
     </row>
     <row r="5" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="206"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -4338,7 +4484,7 @@
       <c r="X5" s="8"/>
     </row>
     <row r="6" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -4373,7 +4519,7 @@
       <c r="X6" s="84"/>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="206"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -4399,7 +4545,7 @@
       <c r="X7" s="8"/>
     </row>
     <row r="8" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -4434,7 +4580,7 @@
       <c r="X8" s="85"/>
     </row>
     <row r="9" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="206"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -4460,7 +4606,7 @@
       <c r="X9" s="8"/>
     </row>
     <row r="10" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -4495,7 +4641,7 @@
       <c r="X10" s="82"/>
     </row>
     <row r="11" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="206"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -4521,7 +4667,7 @@
       <c r="X11" s="8"/>
     </row>
     <row r="12" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
+      <c r="A12" s="212"/>
       <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
@@ -4558,7 +4704,7 @@
       <c r="X12" s="119"/>
     </row>
     <row r="13" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="206"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -4584,7 +4730,7 @@
       <c r="X13" s="8"/>
     </row>
     <row r="14" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="206"/>
+      <c r="A14" s="212"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -4619,7 +4765,7 @@
       <c r="X14" s="121"/>
     </row>
     <row r="15" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="206"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -4645,7 +4791,7 @@
       <c r="X15" s="8"/>
     </row>
     <row r="16" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="206"/>
+      <c r="A16" s="212"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -4686,7 +4832,7 @@
       <c r="X16" s="36"/>
     </row>
     <row r="17" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="206"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -4712,7 +4858,7 @@
       <c r="X17" s="8"/>
     </row>
     <row r="18" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
+      <c r="A18" s="212"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -4787,7 +4933,7 @@
       <c r="X19" s="8"/>
     </row>
     <row r="20" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="213" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -4828,7 +4974,7 @@
       <c r="X20" s="40"/>
     </row>
     <row r="21" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="207"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -4854,7 +5000,7 @@
       <c r="X21" s="8"/>
     </row>
     <row r="22" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="207"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
@@ -4927,7 +5073,7 @@
       <c r="X23" s="8"/>
     </row>
     <row r="24" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="200" t="s">
+      <c r="A24" s="206" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4970,7 +5116,7 @@
       <c r="X24" s="126"/>
     </row>
     <row r="25" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="200"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -4996,7 +5142,7 @@
       <c r="X25" s="8"/>
     </row>
     <row r="26" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="200"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -5039,7 +5185,7 @@
       <c r="X26" s="45"/>
     </row>
     <row r="27" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="200"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -5065,7 +5211,7 @@
       <c r="X27" s="8"/>
     </row>
     <row r="28" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="200"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -5102,7 +5248,7 @@
       <c r="X28" s="86"/>
     </row>
     <row r="29" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="200"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -5128,7 +5274,7 @@
       <c r="X29" s="8"/>
     </row>
     <row r="30" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="200"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -5163,7 +5309,7 @@
       <c r="X30" s="130"/>
     </row>
     <row r="31" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="200"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -5189,7 +5335,7 @@
       <c r="X31" s="8"/>
     </row>
     <row r="32" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="200"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
@@ -5250,7 +5396,7 @@
       <c r="X33" s="8"/>
     </row>
     <row r="34" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="201" t="s">
+      <c r="A34" s="207" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -5287,7 +5433,7 @@
       <c r="X34" s="133"/>
     </row>
     <row r="35" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="201"/>
+      <c r="A35" s="207"/>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -5313,7 +5459,7 @@
       <c r="X35" s="8"/>
     </row>
     <row r="36" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="201"/>
+      <c r="A36" s="207"/>
       <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
@@ -5348,7 +5494,7 @@
       <c r="X36" s="87"/>
     </row>
     <row r="37" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="201"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -5374,7 +5520,7 @@
       <c r="X37" s="8"/>
     </row>
     <row r="38" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="201"/>
+      <c r="A38" s="207"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -5409,7 +5555,7 @@
       <c r="X38" s="135"/>
     </row>
     <row r="39" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="201"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -5435,7 +5581,7 @@
       <c r="X39" s="8"/>
     </row>
     <row r="40" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="201"/>
+      <c r="A40" s="207"/>
       <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
@@ -5472,7 +5618,7 @@
       <c r="X40" s="137"/>
     </row>
     <row r="41" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="201"/>
+      <c r="A41" s="207"/>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -5498,7 +5644,7 @@
       <c r="X41" s="8"/>
     </row>
     <row r="42" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="201"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
@@ -5559,7 +5705,7 @@
       <c r="X43" s="8"/>
     </row>
     <row r="44" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="208" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -5600,7 +5746,7 @@
       <c r="X44" s="138"/>
     </row>
     <row r="45" spans="1:24" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="202"/>
+      <c r="A45" s="208"/>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -5626,7 +5772,7 @@
       <c r="X45" s="8"/>
     </row>
     <row r="46" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="202"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -5743,7 +5889,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -5760,52 +5906,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A1" s="211" t="s">
+      <c r="A1" s="217" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="211" t="s">
+      <c r="B1" s="217" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="211"/>
-      <c r="D1" s="211" t="s">
+      <c r="C1" s="217"/>
+      <c r="D1" s="217" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="211"/>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211" t="s">
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="217"/>
+      <c r="H1" s="217"/>
+      <c r="I1" s="217"/>
+      <c r="J1" s="217"/>
+      <c r="K1" s="217" t="s">
         <v>62</v>
       </c>
-      <c r="L1" s="211" t="s">
+      <c r="L1" s="217" t="s">
         <v>59</v>
       </c>
-      <c r="M1" s="211"/>
-      <c r="N1" s="211"/>
-      <c r="O1" s="211"/>
-      <c r="P1" s="211"/>
-      <c r="Q1" s="211"/>
-      <c r="R1" s="211"/>
-      <c r="S1" s="211"/>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="211"/>
-      <c r="AB1" s="211"/>
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="211"/>
-      <c r="AE1" s="211"/>
-      <c r="AF1" s="211"/>
-      <c r="AG1" s="211"/>
+      <c r="M1" s="217"/>
+      <c r="N1" s="217"/>
+      <c r="O1" s="217"/>
+      <c r="P1" s="217"/>
+      <c r="Q1" s="217"/>
+      <c r="R1" s="217"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="217"/>
+      <c r="U1" s="217"/>
+      <c r="V1" s="217"/>
+      <c r="W1" s="217"/>
+      <c r="X1" s="217"/>
+      <c r="Y1" s="217"/>
+      <c r="Z1" s="217"/>
+      <c r="AA1" s="217"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="217"/>
+      <c r="AD1" s="217"/>
+      <c r="AE1" s="217"/>
+      <c r="AF1" s="217"/>
+      <c r="AG1" s="217"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="211"/>
+      <c r="A2" s="217"/>
       <c r="B2" s="111" t="s">
         <v>43</v>
       </c>
@@ -5833,7 +5979,7 @@
       <c r="J2" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="211"/>
+      <c r="K2" s="217"/>
       <c r="L2" s="88"/>
       <c r="M2" s="89"/>
       <c r="N2" s="90"/>
@@ -5858,7 +6004,7 @@
       <c r="AG2" s="109"/>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="212" t="s">
+      <c r="A3" s="218" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="112">
@@ -5971,7 +6117,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="212"/>
+      <c r="A4" s="218"/>
       <c r="B4" s="112">
         <v>23</v>
       </c>
@@ -6094,7 +6240,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="212"/>
+      <c r="A5" s="218"/>
       <c r="B5" s="112">
         <v>24</v>
       </c>
@@ -6217,7 +6363,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="212"/>
+      <c r="A6" s="218"/>
       <c r="B6" s="112">
         <v>25</v>
       </c>
@@ -6337,7 +6483,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="212"/>
+      <c r="A7" s="218"/>
       <c r="B7" s="112">
         <v>26</v>
       </c>
@@ -6460,7 +6606,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="213" t="s">
+      <c r="A8" s="219" t="s">
         <v>53</v>
       </c>
       <c r="B8" s="112">
@@ -6582,7 +6728,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="213"/>
+      <c r="A9" s="219"/>
       <c r="B9" s="112">
         <v>28</v>
       </c>
@@ -6702,7 +6848,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="213"/>
+      <c r="A10" s="219"/>
       <c r="B10" s="112">
         <v>29</v>
       </c>
@@ -6822,7 +6968,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="213"/>
+      <c r="A11" s="219"/>
       <c r="B11" s="112">
         <v>30</v>
       </c>
@@ -6944,7 +7090,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="214" t="s">
+      <c r="A12" s="220" t="s">
         <v>54</v>
       </c>
       <c r="B12" s="112">
@@ -6977,7 +7123,7 @@
       </c>
       <c r="K12" s="170" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>This Week</v>
+        <v/>
       </c>
       <c r="L12" s="144" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -7069,7 +7215,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="214"/>
+      <c r="A13" s="220"/>
       <c r="B13" s="112">
         <v>32</v>
       </c>
@@ -7192,7 +7338,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="214"/>
+      <c r="A14" s="220"/>
       <c r="B14" s="112">
         <v>33</v>
       </c>
@@ -7315,7 +7461,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="214"/>
+      <c r="A15" s="220"/>
       <c r="B15" s="112">
         <v>34</v>
       </c>
@@ -7438,7 +7584,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" s="214"/>
+      <c r="A16" s="220"/>
       <c r="B16" s="112">
         <v>35</v>
       </c>
@@ -7561,7 +7707,7 @@
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" s="215" t="s">
+      <c r="A17" s="221" t="s">
         <v>55</v>
       </c>
       <c r="B17" s="112">
@@ -7686,7 +7832,7 @@
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" s="215"/>
+      <c r="A18" s="221"/>
       <c r="B18" s="112">
         <v>37</v>
       </c>
@@ -7809,7 +7955,7 @@
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" s="215"/>
+      <c r="A19" s="221"/>
       <c r="B19" s="112">
         <v>38</v>
       </c>
@@ -7932,7 +8078,7 @@
       </c>
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" s="215"/>
+      <c r="A20" s="221"/>
       <c r="B20" s="112">
         <v>39</v>
       </c>
@@ -8055,7 +8201,7 @@
       </c>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" s="216" t="s">
+      <c r="A21" s="222" t="s">
         <v>56</v>
       </c>
       <c r="B21" s="112">
@@ -8180,7 +8326,7 @@
       </c>
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
+      <c r="A22" s="222"/>
       <c r="B22" s="112">
         <v>41</v>
       </c>
@@ -8303,7 +8449,7 @@
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
+      <c r="A23" s="222"/>
       <c r="B23" s="112">
         <v>42</v>
       </c>
@@ -8334,7 +8480,7 @@
       </c>
       <c r="K23" s="170" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v/>
+        <v>This Week</v>
       </c>
       <c r="L23" s="144" t="str">
         <f t="shared" ca="1" si="7"/>
@@ -8426,7 +8572,7 @@
       </c>
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" s="216"/>
+      <c r="A24" s="222"/>
       <c r="B24" s="112">
         <v>43</v>
       </c>
@@ -8549,7 +8695,7 @@
       </c>
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" s="217" t="s">
+      <c r="A25" s="223" t="s">
         <v>57</v>
       </c>
       <c r="B25" s="112">
@@ -8674,7 +8820,7 @@
       </c>
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" s="217"/>
+      <c r="A26" s="223"/>
       <c r="B26" s="112">
         <v>45</v>
       </c>
@@ -8797,7 +8943,7 @@
       </c>
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" s="217"/>
+      <c r="A27" s="223"/>
       <c r="B27" s="112">
         <v>46</v>
       </c>
@@ -8920,7 +9066,7 @@
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" s="217"/>
+      <c r="A28" s="223"/>
       <c r="B28" s="112">
         <v>47</v>
       </c>
@@ -9043,7 +9189,7 @@
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" s="217"/>
+      <c r="A29" s="223"/>
       <c r="B29" s="112">
         <v>48</v>
       </c>
@@ -9166,7 +9312,7 @@
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" s="218" t="s">
+      <c r="A30" s="224" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="112">
@@ -9291,7 +9437,7 @@
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" s="218"/>
+      <c r="A31" s="224"/>
       <c r="B31" s="112">
         <v>50</v>
       </c>
@@ -9414,7 +9560,7 @@
       </c>
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" s="218"/>
+      <c r="A32" s="224"/>
       <c r="B32" s="112">
         <v>51</v>
       </c>
@@ -9537,7 +9683,7 @@
       </c>
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A33" s="218"/>
+      <c r="A33" s="224"/>
       <c r="B33" s="112">
         <v>52</v>
       </c>
@@ -9660,7 +9806,7 @@
       </c>
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A34" s="210" t="s">
+      <c r="A34" s="216" t="s">
         <v>61</v>
       </c>
       <c r="B34" s="112">
@@ -9785,7 +9931,7 @@
       </c>
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A35" s="210"/>
+      <c r="A35" s="216"/>
       <c r="B35" s="112">
         <v>2</v>
       </c>
@@ -10003,18 +10149,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="231" t="s">
+      <c r="B1" s="237" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="232"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="228" t="s">
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="234" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="230"/>
+      <c r="F1" s="235"/>
+      <c r="G1" s="235"/>
+      <c r="H1" s="235"/>
+      <c r="I1" s="236"/>
     </row>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="177" t="s">
@@ -10043,7 +10189,7 @@
       </c>
     </row>
     <row r="3" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B3" s="227" t="s">
+      <c r="B3" s="233" t="s">
         <v>106</v>
       </c>
       <c r="C3" s="175" t="s">
@@ -10067,7 +10213,7 @@
       </c>
     </row>
     <row r="4" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B4" s="219"/>
+      <c r="B4" s="225"/>
       <c r="C4" s="172" t="s">
         <v>73</v>
       </c>
@@ -10091,7 +10237,7 @@
       </c>
     </row>
     <row r="5" spans="2:9" s="77" customFormat="1" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="219"/>
+      <c r="B5" s="225"/>
       <c r="C5" s="172" t="s">
         <v>96</v>
       </c>
@@ -10109,8 +10255,8 @@
       <c r="I5" s="193"/>
     </row>
     <row r="6" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="219"/>
-      <c r="C6" s="234" t="s">
+      <c r="B6" s="225"/>
+      <c r="C6" s="240" t="s">
         <v>88</v>
       </c>
       <c r="D6" s="173" t="s">
@@ -10129,8 +10275,8 @@
       </c>
     </row>
     <row r="7" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B7" s="219"/>
-      <c r="C7" s="234"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="240"/>
       <c r="D7" s="173" t="s">
         <v>111</v>
       </c>
@@ -10147,7 +10293,7 @@
       </c>
     </row>
     <row r="8" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B8" s="219" t="s">
+      <c r="B8" s="225" t="s">
         <v>108</v>
       </c>
       <c r="C8" s="172" t="s">
@@ -10173,7 +10319,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B9" s="219"/>
+      <c r="B9" s="225"/>
       <c r="C9" s="172" t="s">
         <v>76</v>
       </c>
@@ -10197,8 +10343,8 @@
       </c>
     </row>
     <row r="10" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B10" s="219"/>
-      <c r="C10" s="221" t="s">
+      <c r="B10" s="225"/>
+      <c r="C10" s="227" t="s">
         <v>100</v>
       </c>
       <c r="D10" s="173" t="s">
@@ -10217,8 +10363,8 @@
       <c r="I10" s="193"/>
     </row>
     <row r="11" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B11" s="219"/>
-      <c r="C11" s="223"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="229"/>
       <c r="D11" s="173" t="s">
         <v>80</v>
       </c>
@@ -10233,8 +10379,8 @@
       <c r="I11" s="193"/>
     </row>
     <row r="12" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B12" s="219"/>
-      <c r="C12" s="223"/>
+      <c r="B12" s="225"/>
+      <c r="C12" s="229"/>
       <c r="D12" s="173" t="s">
         <v>95</v>
       </c>
@@ -10247,8 +10393,8 @@
       <c r="I12" s="193"/>
     </row>
     <row r="13" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B13" s="219"/>
-      <c r="C13" s="224"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="230"/>
       <c r="D13" s="173" t="s">
         <v>78</v>
       </c>
@@ -10261,7 +10407,7 @@
       <c r="I13" s="193"/>
     </row>
     <row r="14" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="225" t="s">
+      <c r="B14" s="231" t="s">
         <v>107</v>
       </c>
       <c r="C14" s="172" t="s">
@@ -10279,8 +10425,8 @@
       <c r="I14" s="193"/>
     </row>
     <row r="15" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B15" s="226"/>
-      <c r="C15" s="221" t="s">
+      <c r="B15" s="232"/>
+      <c r="C15" s="227" t="s">
         <v>102</v>
       </c>
       <c r="D15" s="173" t="s">
@@ -10295,8 +10441,8 @@
       <c r="I15" s="193"/>
     </row>
     <row r="16" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B16" s="226"/>
-      <c r="C16" s="224"/>
+      <c r="B16" s="232"/>
+      <c r="C16" s="230"/>
       <c r="D16" s="173" t="s">
         <v>92</v>
       </c>
@@ -10311,8 +10457,8 @@
       </c>
     </row>
     <row r="17" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B17" s="226"/>
-      <c r="C17" s="221" t="s">
+      <c r="B17" s="232"/>
+      <c r="C17" s="227" t="s">
         <v>101</v>
       </c>
       <c r="D17" s="173" t="s">
@@ -10327,8 +10473,8 @@
       <c r="I17" s="193"/>
     </row>
     <row r="18" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B18" s="226"/>
-      <c r="C18" s="224"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="230"/>
       <c r="D18" s="173" t="s">
         <v>114</v>
       </c>
@@ -10341,7 +10487,7 @@
       <c r="I18" s="193"/>
     </row>
     <row r="19" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="227"/>
+      <c r="B19" s="233"/>
       <c r="C19" s="175" t="s">
         <v>103</v>
       </c>
@@ -10359,7 +10505,7 @@
       </c>
     </row>
     <row r="20" spans="2:9" s="77" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B20" s="219" t="s">
+      <c r="B20" s="225" t="s">
         <v>109</v>
       </c>
       <c r="C20" s="172" t="s">
@@ -10379,7 +10525,7 @@
       <c r="I20" s="193"/>
     </row>
     <row r="21" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B21" s="219"/>
+      <c r="B21" s="225"/>
       <c r="C21" s="172" t="s">
         <v>82</v>
       </c>
@@ -10401,7 +10547,7 @@
       <c r="I21" s="193"/>
     </row>
     <row r="22" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B22" s="219"/>
+      <c r="B22" s="225"/>
       <c r="C22" s="172" t="s">
         <v>87</v>
       </c>
@@ -10423,7 +10569,7 @@
       <c r="I22" s="193"/>
     </row>
     <row r="23" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B23" s="219"/>
+      <c r="B23" s="225"/>
       <c r="C23" s="172" t="s">
         <v>86</v>
       </c>
@@ -10439,7 +10585,7 @@
       <c r="I23" s="193"/>
     </row>
     <row r="24" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="219"/>
+      <c r="B24" s="225"/>
       <c r="C24" s="172" t="s">
         <v>98</v>
       </c>
@@ -10455,8 +10601,8 @@
       <c r="I24" s="193"/>
     </row>
     <row r="25" spans="2:9" s="77" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="219"/>
-      <c r="C25" s="221" t="s">
+      <c r="B25" s="225"/>
+      <c r="C25" s="227" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="173" t="s">
@@ -10479,8 +10625,8 @@
       </c>
     </row>
     <row r="26" spans="2:9" s="77" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="220"/>
-      <c r="C26" s="222"/>
+      <c r="B26" s="226"/>
+      <c r="C26" s="228"/>
       <c r="D26" s="174" t="s">
         <v>116</v>
       </c>
@@ -10514,6 +10660,240 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="45.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="241" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="241"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="200" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="201" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="202" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="203" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="202" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="203" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="202" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="203" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="202" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="203" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="202"/>
+      <c r="B7" s="203"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="202"/>
+      <c r="B8" s="203"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="202"/>
+      <c r="B9" s="203"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="202"/>
+      <c r="B10" s="203"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="202"/>
+      <c r="B11" s="203"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="202"/>
+      <c r="B12" s="203"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="204"/>
+      <c r="B13" s="205"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="200" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="201" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="202" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="203" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="202" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="203" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="202"/>
+      <c r="B17" s="203" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="202"/>
+      <c r="B18" s="203" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="202"/>
+      <c r="B19" s="203" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="202"/>
+      <c r="B20" s="203" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="202"/>
+      <c r="B21" s="203" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="202"/>
+      <c r="B22" s="203" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="202"/>
+      <c r="B23" s="203" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="202"/>
+      <c r="B24" s="203"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="202"/>
+      <c r="B25" s="203"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="202"/>
+      <c r="B26" s="203"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="204"/>
+      <c r="B27" s="205"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="22.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -10531,46 +10911,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="203" t="s">
+      <c r="B1" s="211"/>
+      <c r="C1" s="209" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
-      <c r="R1" s="204"/>
-      <c r="S1" s="204"/>
-      <c r="T1" s="204"/>
-      <c r="U1" s="204"/>
-      <c r="V1" s="204"/>
-      <c r="W1" s="204"/>
-      <c r="X1" s="204"/>
-      <c r="Y1" s="204"/>
-      <c r="Z1" s="204"/>
-      <c r="AA1" s="204"/>
-      <c r="AB1" s="204"/>
-      <c r="AC1" s="204"/>
-      <c r="AD1" s="204"/>
-      <c r="AE1" s="204"/>
-      <c r="AF1" s="205"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+      <c r="G1" s="210"/>
+      <c r="H1" s="210"/>
+      <c r="I1" s="210"/>
+      <c r="J1" s="210"/>
+      <c r="K1" s="210"/>
+      <c r="L1" s="210"/>
+      <c r="M1" s="210"/>
+      <c r="N1" s="210"/>
+      <c r="O1" s="210"/>
+      <c r="P1" s="210"/>
+      <c r="Q1" s="210"/>
+      <c r="R1" s="210"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="210"/>
+      <c r="AA1" s="210"/>
+      <c r="AB1" s="210"/>
+      <c r="AC1" s="210"/>
+      <c r="AD1" s="210"/>
+      <c r="AE1" s="210"/>
+      <c r="AF1" s="211"/>
     </row>
     <row r="2" spans="1:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="208"/>
-      <c r="B2" s="209"/>
+      <c r="A2" s="214"/>
+      <c r="B2" s="215"/>
       <c r="C2" s="60">
         <f ca="1">INDIRECT(ADDRESS(ROW(), COLUMN() - 1)) + 1</f>
         <v>1</v>
@@ -10727,7 +11107,7 @@
       <c r="AF3" s="8"/>
     </row>
     <row r="4" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="206" t="s">
+      <c r="A4" s="212" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -10770,7 +11150,7 @@
       <c r="AF4" s="114"/>
     </row>
     <row r="5" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="206"/>
+      <c r="A5" s="212"/>
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
@@ -10804,7 +11184,7 @@
       <c r="AF5" s="8"/>
     </row>
     <row r="6" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
+      <c r="A6" s="212"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
@@ -10845,7 +11225,7 @@
       <c r="AF6" s="84"/>
     </row>
     <row r="7" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="206"/>
+      <c r="A7" s="212"/>
       <c r="B7" s="2"/>
       <c r="C7" s="9"/>
       <c r="D7" s="10"/>
@@ -10879,7 +11259,7 @@
       <c r="AF7" s="8"/>
     </row>
     <row r="8" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="206"/>
+      <c r="A8" s="212"/>
       <c r="B8" s="3" t="s">
         <v>3</v>
       </c>
@@ -10922,7 +11302,7 @@
       <c r="AF8" s="85"/>
     </row>
     <row r="9" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="206"/>
+      <c r="A9" s="212"/>
       <c r="B9" s="2"/>
       <c r="C9" s="9"/>
       <c r="D9" s="10"/>
@@ -10956,7 +11336,7 @@
       <c r="AF9" s="8"/>
     </row>
     <row r="10" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="206"/>
+      <c r="A10" s="212"/>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
@@ -10999,7 +11379,7 @@
       <c r="AF10" s="82"/>
     </row>
     <row r="11" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="206"/>
+      <c r="A11" s="212"/>
       <c r="B11" s="2"/>
       <c r="C11" s="9"/>
       <c r="D11" s="10"/>
@@ -11033,7 +11413,7 @@
       <c r="AF11" s="8"/>
     </row>
     <row r="12" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="206"/>
+      <c r="A12" s="212"/>
       <c r="B12" s="3" t="s">
         <v>5</v>
       </c>
@@ -11078,7 +11458,7 @@
       <c r="AF12" s="119"/>
     </row>
     <row r="13" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="206"/>
+      <c r="A13" s="212"/>
       <c r="B13" s="2"/>
       <c r="C13" s="9"/>
       <c r="D13" s="10"/>
@@ -11112,7 +11492,7 @@
       <c r="AF13" s="8"/>
     </row>
     <row r="14" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="206"/>
+      <c r="A14" s="212"/>
       <c r="B14" s="3" t="s">
         <v>6</v>
       </c>
@@ -11155,7 +11535,7 @@
       <c r="AF14" s="121"/>
     </row>
     <row r="15" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="206"/>
+      <c r="A15" s="212"/>
       <c r="B15" s="2"/>
       <c r="C15" s="9"/>
       <c r="D15" s="10"/>
@@ -11189,7 +11569,7 @@
       <c r="AF15" s="8"/>
     </row>
     <row r="16" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="206"/>
+      <c r="A16" s="212"/>
       <c r="B16" s="3" t="s">
         <v>7</v>
       </c>
@@ -11240,7 +11620,7 @@
       <c r="AF16" s="36"/>
     </row>
     <row r="17" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A17" s="206"/>
+      <c r="A17" s="212"/>
       <c r="B17" s="2"/>
       <c r="C17" s="9"/>
       <c r="D17" s="10"/>
@@ -11274,7 +11654,7 @@
       <c r="AF17" s="8"/>
     </row>
     <row r="18" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="206"/>
+      <c r="A18" s="212"/>
       <c r="B18" s="3" t="s">
         <v>8</v>
       </c>
@@ -11377,7 +11757,7 @@
       <c r="AF19" s="8"/>
     </row>
     <row r="20" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="207" t="s">
+      <c r="A20" s="213" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -11428,7 +11808,7 @@
       <c r="AF20" s="40"/>
     </row>
     <row r="21" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A21" s="207"/>
+      <c r="A21" s="213"/>
       <c r="B21" s="2"/>
       <c r="C21" s="9"/>
       <c r="D21" s="10"/>
@@ -11462,7 +11842,7 @@
       <c r="AF21" s="8"/>
     </row>
     <row r="22" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="207"/>
+      <c r="A22" s="213"/>
       <c r="B22" s="3" t="s">
         <v>11</v>
       </c>
@@ -11561,7 +11941,7 @@
       <c r="AF23" s="8"/>
     </row>
     <row r="24" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="200" t="s">
+      <c r="A24" s="206" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -11616,7 +11996,7 @@
       <c r="AF24" s="126"/>
     </row>
     <row r="25" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A25" s="200"/>
+      <c r="A25" s="206"/>
       <c r="B25" s="2"/>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -11650,7 +12030,7 @@
       <c r="AF25" s="8"/>
     </row>
     <row r="26" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="200"/>
+      <c r="A26" s="206"/>
       <c r="B26" s="3" t="s">
         <v>15</v>
       </c>
@@ -11709,7 +12089,7 @@
       <c r="AF26" s="45"/>
     </row>
     <row r="27" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A27" s="200"/>
+      <c r="A27" s="206"/>
       <c r="B27" s="2"/>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -11743,7 +12123,7 @@
       <c r="AF27" s="8"/>
     </row>
     <row r="28" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="200"/>
+      <c r="A28" s="206"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -11788,7 +12168,7 @@
       <c r="AF28" s="86"/>
     </row>
     <row r="29" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A29" s="200"/>
+      <c r="A29" s="206"/>
       <c r="B29" s="2"/>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -11822,7 +12202,7 @@
       <c r="AF29" s="8"/>
     </row>
     <row r="30" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="200"/>
+      <c r="A30" s="206"/>
       <c r="B30" s="3" t="s">
         <v>17</v>
       </c>
@@ -11865,7 +12245,7 @@
       <c r="AF30" s="130"/>
     </row>
     <row r="31" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A31" s="200"/>
+      <c r="A31" s="206"/>
       <c r="B31" s="2"/>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -11899,7 +12279,7 @@
       <c r="AF31" s="8"/>
     </row>
     <row r="32" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="200"/>
+      <c r="A32" s="206"/>
       <c r="B32" s="3" t="s">
         <v>18</v>
       </c>
@@ -11980,7 +12360,7 @@
       <c r="AF33" s="8"/>
     </row>
     <row r="34" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="201" t="s">
+      <c r="A34" s="207" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -12025,7 +12405,7 @@
       <c r="AF34" s="133"/>
     </row>
     <row r="35" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A35" s="201"/>
+      <c r="A35" s="207"/>
       <c r="B35" s="2"/>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -12059,7 +12439,7 @@
       <c r="AF35" s="8"/>
     </row>
     <row r="36" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="201"/>
+      <c r="A36" s="207"/>
       <c r="B36" s="3" t="s">
         <v>20</v>
       </c>
@@ -12102,7 +12482,7 @@
       <c r="AF36" s="87"/>
     </row>
     <row r="37" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A37" s="201"/>
+      <c r="A37" s="207"/>
       <c r="B37" s="2"/>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -12136,7 +12516,7 @@
       <c r="AF37" s="8"/>
     </row>
     <row r="38" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="201"/>
+      <c r="A38" s="207"/>
       <c r="B38" s="3" t="s">
         <v>21</v>
       </c>
@@ -12179,7 +12559,7 @@
       <c r="AF38" s="135"/>
     </row>
     <row r="39" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A39" s="201"/>
+      <c r="A39" s="207"/>
       <c r="B39" s="2"/>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -12213,7 +12593,7 @@
       <c r="AF39" s="8"/>
     </row>
     <row r="40" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="201"/>
+      <c r="A40" s="207"/>
       <c r="B40" s="3" t="s">
         <v>22</v>
       </c>
@@ -12262,7 +12642,7 @@
       <c r="AF40" s="137"/>
     </row>
     <row r="41" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A41" s="201"/>
+      <c r="A41" s="207"/>
       <c r="B41" s="2"/>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -12296,7 +12676,7 @@
       <c r="AF41" s="8"/>
     </row>
     <row r="42" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="201"/>
+      <c r="A42" s="207"/>
       <c r="B42" s="3" t="s">
         <v>23</v>
       </c>
@@ -12375,7 +12755,7 @@
       <c r="AF43" s="8"/>
     </row>
     <row r="44" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="202" t="s">
+      <c r="A44" s="208" t="s">
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
@@ -12428,7 +12808,7 @@
       <c r="AF44" s="138"/>
     </row>
     <row r="45" spans="1:32" s="1" customFormat="1" ht="8.25" x14ac:dyDescent="0.15">
-      <c r="A45" s="202"/>
+      <c r="A45" s="208"/>
       <c r="B45" s="2"/>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -12462,7 +12842,7 @@
       <c r="AF45" s="8"/>
     </row>
     <row r="46" spans="1:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="202"/>
+      <c r="A46" s="208"/>
       <c r="B46" s="3" t="s">
         <v>25</v>
       </c>
@@ -12595,7 +12975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
